--- a/运营数据/南京.xlsx
+++ b/运营数据/南京.xlsx
@@ -399,11 +399,11 @@
         </is>
       </c>
       <c r="N3" s="20" t="n">
-        <v>1002.0</v>
+        <v>499.0</v>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
-          <t>已取车</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P3" s="22" t="inlineStr">

--- a/运营数据/南京.xlsx
+++ b/运营数据/南京.xlsx
@@ -341,7 +341,7 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>GX20190720164155032</t>
+          <t>GX20190731151849646</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
@@ -350,20 +350,20 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>43666.69513888889</v>
+        <v>43677.6375</v>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>张磊</t>
+          <t>刘李恒</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>13655193117</t>
+          <t>13062500022</t>
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>43666.694444444445</v>
+        <v>43677.729166666664</v>
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
@@ -371,39 +371,39 @@
         </is>
       </c>
       <c r="H3" s="14" t="n">
-        <v>43670.694444444445</v>
+        <v>43679.729166666664</v>
       </c>
       <c r="I3" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京协众东麒路店</t>
+          <t>广汽丰田南京大政仙尧路店</t>
         </is>
       </c>
       <c r="K3" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京协众东麒路店</t>
+          <t>广汽丰田南京大政仙尧路店</t>
         </is>
       </c>
       <c r="L3" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞双擎</t>
         </is>
       </c>
       <c r="M3" s="19" t="inlineStr">
         <is>
-          <t>苏AY7J67</t>
+          <t>苏A666AP</t>
         </is>
       </c>
       <c r="N3" s="20" t="n">
-        <v>499.0</v>
+        <v>49.0</v>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P3" s="22" t="inlineStr">
@@ -420,7 +420,7 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>GX20190720101128160</t>
+          <t>GX20190730124113177</t>
         </is>
       </c>
       <c r="B4" s="8" t="inlineStr">
@@ -429,20 +429,20 @@
         </is>
       </c>
       <c r="C4" s="9" t="n">
-        <v>43666.424305555556</v>
+        <v>43676.52847222222</v>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>杨辉</t>
+          <t>王浩</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>17372969927</t>
+          <t>15861802435</t>
         </is>
       </c>
       <c r="F4" s="12" t="n">
-        <v>43666.46597222222</v>
+        <v>43676.708333333336</v>
       </c>
       <c r="G4" s="13" t="inlineStr">
         <is>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="H4" s="14" t="n">
-        <v>43668.46597222222</v>
+        <v>43678.708333333336</v>
       </c>
       <c r="I4" s="15" t="inlineStr">
         <is>
@@ -459,12 +459,12 @@
       </c>
       <c r="J4" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京协众东麒路店</t>
+          <t>广汽丰田南京大政仙尧路店</t>
         </is>
       </c>
       <c r="K4" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京协众东麒路店</t>
+          <t>广汽丰田南京大政仙尧路店</t>
         </is>
       </c>
       <c r="L4" s="18" t="inlineStr">
@@ -474,15 +474,15 @@
       </c>
       <c r="M4" s="19" t="inlineStr">
         <is>
-          <t>苏A315CY</t>
+          <t>苏A339DD</t>
         </is>
       </c>
       <c r="N4" s="20" t="n">
-        <v>199.0</v>
+        <v>49.0</v>
       </c>
       <c r="O4" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P4" s="22" t="inlineStr">
@@ -499,7 +499,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>GX20190720100950285</t>
+          <t>GX20190729100522931</t>
         </is>
       </c>
       <c r="B5" s="8" t="inlineStr">
@@ -508,20 +508,20 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>43666.42291666667</v>
+        <v>43675.42013888889</v>
       </c>
       <c r="D5" s="10" t="inlineStr">
         <is>
-          <t>许升松</t>
+          <t>余景涵</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>13951701359</t>
+          <t>17602545309</t>
         </is>
       </c>
       <c r="F5" s="12" t="n">
-        <v>43666.46597222222</v>
+        <v>43675.427083333336</v>
       </c>
       <c r="G5" s="13" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="H5" s="14" t="n">
-        <v>43668.46597222222</v>
+        <v>43677.427083333336</v>
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
@@ -548,16 +548,16 @@
       </c>
       <c r="L5" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M5" s="19" t="inlineStr">
         <is>
-          <t>苏A065CL</t>
+          <t>苏A219AR</t>
         </is>
       </c>
       <c r="N5" s="20" t="n">
-        <v>99.0</v>
+        <v>49.0</v>
       </c>
       <c r="O5" s="21" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>GX20190719093744791</t>
+          <t>GX20190728153451035</t>
         </is>
       </c>
       <c r="B6" s="8" t="inlineStr">
@@ -587,20 +587,20 @@
         </is>
       </c>
       <c r="C6" s="9" t="n">
-        <v>43665.40069444444</v>
+        <v>43674.64861111111</v>
       </c>
       <c r="D6" s="10" t="inlineStr">
         <is>
-          <t>杨辉</t>
+          <t>刘大群</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>17372969927</t>
+          <t>13912910820</t>
         </is>
       </c>
       <c r="F6" s="12" t="n">
-        <v>43665.73333333333</v>
+        <v>43674.729166666664</v>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="H6" s="14" t="n">
-        <v>43667.73333333333</v>
+        <v>43676.729166666664</v>
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
@@ -617,12 +617,12 @@
       </c>
       <c r="J6" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京协众东麒路店</t>
+          <t>广汽丰田南京大政仙尧路店</t>
         </is>
       </c>
       <c r="K6" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京协众东麒路店</t>
+          <t>广汽丰田南京大政仙尧路店</t>
         </is>
       </c>
       <c r="L6" s="18" t="inlineStr">
@@ -630,17 +630,17 @@
           <t>第八代凯美瑞双擎</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t/>
+      <c r="M6" s="19" t="inlineStr">
+        <is>
+          <t>苏A155AA</t>
         </is>
       </c>
       <c r="N6" s="20" t="n">
-        <v>710.0</v>
+        <v>299.0</v>
       </c>
       <c r="O6" s="21" t="inlineStr">
         <is>
-          <t>已取消</t>
+          <t>已还车</t>
         </is>
       </c>
       <c r="P6" s="22" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GX20190715174319611</t>
+          <t>GX20190728095314442</t>
         </is>
       </c>
       <c r="B7" s="8" t="inlineStr">
@@ -666,20 +666,20 @@
         </is>
       </c>
       <c r="C7" s="9" t="n">
-        <v>43661.73819444444</v>
+        <v>43674.41180555556</v>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>许升松</t>
+          <t>夏萍</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>13951701359</t>
+          <t>18100626119</t>
         </is>
       </c>
       <c r="F7" s="12" t="n">
-        <v>43661.7375</v>
+        <v>43674.475</v>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="H7" s="14" t="n">
-        <v>43663.7375</v>
+        <v>43676.475</v>
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
@@ -696,22 +696,22 @@
       </c>
       <c r="J7" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京长益大厂店</t>
+          <t>广汽丰田南京协众东麒路店</t>
         </is>
       </c>
       <c r="K7" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京长益大厂店</t>
+          <t>广汽丰田南京协众东麒路店</t>
         </is>
       </c>
       <c r="L7" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞双擎</t>
         </is>
       </c>
       <c r="M7" s="19" t="inlineStr">
         <is>
-          <t>苏A356BV</t>
+          <t>苏A265BE</t>
         </is>
       </c>
       <c r="N7" s="20" t="n">
@@ -736,7 +736,7 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GX20190714130933760</t>
+          <t>GX20190727172717019</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -745,20 +745,20 @@
         </is>
       </c>
       <c r="C8" s="9" t="n">
-        <v>43660.54791666667</v>
+        <v>43673.72708333333</v>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>夏泽宇</t>
+          <t>15951625076</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>18914691828</t>
+          <t>15951625076</t>
         </is>
       </c>
       <c r="F8" s="12" t="n">
-        <v>43661.75</v>
+        <v>43673.72638888889</v>
       </c>
       <c r="G8" s="13" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="H8" s="14" t="n">
-        <v>43663.75</v>
+        <v>43675.72638888889</v>
       </c>
       <c r="I8" s="15" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
       </c>
       <c r="M8" s="19" t="inlineStr">
         <is>
-          <t>苏A88Y9W</t>
+          <t>苏A666AP</t>
         </is>
       </c>
       <c r="N8" s="20" t="n">
@@ -815,7 +815,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GX20190713092008563</t>
+          <t>GX20190726103613277</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -824,20 +824,20 @@
         </is>
       </c>
       <c r="C9" s="9" t="n">
-        <v>43659.38888888889</v>
+        <v>43672.441666666666</v>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>孙伟</t>
+          <t>袁时冬</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>13584030098</t>
+          <t>15895888527</t>
         </is>
       </c>
       <c r="F9" s="12" t="n">
-        <v>43659.4375</v>
+        <v>43689.75</v>
       </c>
       <c r="G9" s="13" t="inlineStr">
         <is>
@@ -845,11 +845,11 @@
         </is>
       </c>
       <c r="H9" s="14" t="n">
-        <v>43661.4375</v>
+        <v>43692.75</v>
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J9" s="16" t="inlineStr">
@@ -869,15 +869,15 @@
       </c>
       <c r="M9" s="19" t="inlineStr">
         <is>
-          <t>苏A618CF</t>
+          <t>苏A88Y9W</t>
         </is>
       </c>
       <c r="N9" s="20" t="n">
-        <v>49.0</v>
+        <v>445.0</v>
       </c>
       <c r="O9" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已排车</t>
         </is>
       </c>
       <c r="P9" s="22" t="inlineStr">
@@ -894,7 +894,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GX20190711175128019</t>
+          <t>GX20190720164155032</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -903,20 +903,20 @@
         </is>
       </c>
       <c r="C10" s="9" t="n">
-        <v>43657.74375</v>
+        <v>43666.69513888889</v>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>戎超</t>
+          <t>张磊</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>13404170317</t>
+          <t>13655193117</t>
         </is>
       </c>
       <c r="F10" s="12" t="n">
-        <v>43658.666666666664</v>
+        <v>43666.694444444445</v>
       </c>
       <c r="G10" s="13" t="inlineStr">
         <is>
@@ -924,35 +924,35 @@
         </is>
       </c>
       <c r="H10" s="14" t="n">
-        <v>43660.666666666664</v>
+        <v>43670.694444444445</v>
       </c>
       <c r="I10" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J10" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京协众东麒路店</t>
         </is>
       </c>
       <c r="K10" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京协众东麒路店</t>
         </is>
       </c>
       <c r="L10" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M10" s="19" t="inlineStr">
         <is>
-          <t>苏A666AP</t>
+          <t>苏AY7J67</t>
         </is>
       </c>
       <c r="N10" s="20" t="n">
-        <v>160.0</v>
+        <v>499.0</v>
       </c>
       <c r="O10" s="21" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GX20190711112419619</t>
+          <t>GX20190720101128160</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
@@ -982,20 +982,20 @@
         </is>
       </c>
       <c r="C11" s="9" t="n">
-        <v>43657.475</v>
+        <v>43666.424305555556</v>
       </c>
       <c r="D11" s="10" t="inlineStr">
         <is>
-          <t>严思雨</t>
+          <t>杨辉</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>18751994386</t>
+          <t>17372969927</t>
         </is>
       </c>
       <c r="F11" s="12" t="n">
-        <v>43658.75</v>
+        <v>43666.46597222222</v>
       </c>
       <c r="G11" s="13" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="H11" s="14" t="n">
-        <v>43660.75</v>
+        <v>43668.46597222222</v>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
@@ -1012,12 +1012,12 @@
       </c>
       <c r="J11" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京协众东麒路店</t>
         </is>
       </c>
       <c r="K11" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京协众东麒路店</t>
         </is>
       </c>
       <c r="L11" s="18" t="inlineStr">
@@ -1027,11 +1027,11 @@
       </c>
       <c r="M11" s="19" t="inlineStr">
         <is>
-          <t>苏A88Y9W</t>
+          <t>苏A315CY</t>
         </is>
       </c>
       <c r="N11" s="20" t="n">
-        <v>49.0</v>
+        <v>199.0</v>
       </c>
       <c r="O11" s="21" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GX20190710175150307</t>
+          <t>GX20190720100950285</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -1061,20 +1061,20 @@
         </is>
       </c>
       <c r="C12" s="9" t="n">
-        <v>43656.74375</v>
+        <v>43666.42291666667</v>
       </c>
       <c r="D12" s="10" t="inlineStr">
         <is>
-          <t>李超</t>
+          <t>许升松</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>18936002267</t>
+          <t>13951701359</t>
         </is>
       </c>
       <c r="F12" s="12" t="n">
-        <v>43656.740277777775</v>
+        <v>43666.46597222222</v>
       </c>
       <c r="G12" s="13" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="H12" s="14" t="n">
-        <v>43658.740277777775</v>
+        <v>43668.46597222222</v>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
@@ -1091,12 +1091,12 @@
       </c>
       <c r="J12" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京协众东麒路店</t>
         </is>
       </c>
       <c r="K12" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京协众东麒路店</t>
         </is>
       </c>
       <c r="L12" s="18" t="inlineStr">
@@ -1106,11 +1106,11 @@
       </c>
       <c r="M12" s="19" t="inlineStr">
         <is>
-          <t>苏A155AA</t>
+          <t>苏A065CL</t>
         </is>
       </c>
       <c r="N12" s="20" t="n">
-        <v>49.0</v>
+        <v>99.0</v>
       </c>
       <c r="O12" s="21" t="inlineStr">
         <is>
@@ -1131,77 +1131,630 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
+          <t>GX20190719093744791</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>43665.40069444444</v>
+      </c>
+      <c r="D13" s="10" t="inlineStr">
+        <is>
+          <t>杨辉</t>
+        </is>
+      </c>
+      <c r="E13" s="11" t="inlineStr">
+        <is>
+          <t>17372969927</t>
+        </is>
+      </c>
+      <c r="F13" s="12" t="n">
+        <v>43665.73333333333</v>
+      </c>
+      <c r="G13" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>43667.73333333333</v>
+      </c>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J13" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K13" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L13" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N13" s="20" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="O13" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P13" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q13" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>GX20190715174319611</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>43661.73819444444</v>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>许升松</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>13951701359</t>
+        </is>
+      </c>
+      <c r="F14" s="12" t="n">
+        <v>43661.7375</v>
+      </c>
+      <c r="G14" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>43663.7375</v>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J14" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京长益大厂店</t>
+        </is>
+      </c>
+      <c r="K14" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京长益大厂店</t>
+        </is>
+      </c>
+      <c r="L14" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M14" s="19" t="inlineStr">
+        <is>
+          <t>苏A356BV</t>
+        </is>
+      </c>
+      <c r="N14" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O14" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P14" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q14" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>GX20190714130933760</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>43660.54791666667</v>
+      </c>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>夏泽宇</t>
+        </is>
+      </c>
+      <c r="E15" s="11" t="inlineStr">
+        <is>
+          <t>18914691828</t>
+        </is>
+      </c>
+      <c r="F15" s="12" t="n">
+        <v>43661.75</v>
+      </c>
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H15" s="14" t="n">
+        <v>43663.75</v>
+      </c>
+      <c r="I15" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J15" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K15" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L15" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M15" s="19" t="inlineStr">
+        <is>
+          <t>苏A88Y9W</t>
+        </is>
+      </c>
+      <c r="N15" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O15" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P15" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q15" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>GX20190713092008563</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>43659.38888888889</v>
+      </c>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>孙伟</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>13584030098</t>
+        </is>
+      </c>
+      <c r="F16" s="12" t="n">
+        <v>43659.4375</v>
+      </c>
+      <c r="G16" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H16" s="14" t="n">
+        <v>43661.4375</v>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J16" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K16" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L16" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M16" s="19" t="inlineStr">
+        <is>
+          <t>苏A618CF</t>
+        </is>
+      </c>
+      <c r="N16" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O16" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P16" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q16" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>GX20190711175128019</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>43657.74375</v>
+      </c>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>戎超</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>13404170317</t>
+        </is>
+      </c>
+      <c r="F17" s="12" t="n">
+        <v>43658.666666666664</v>
+      </c>
+      <c r="G17" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>43660.666666666664</v>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J17" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K17" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L17" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M17" s="19" t="inlineStr">
+        <is>
+          <t>苏A666AP</t>
+        </is>
+      </c>
+      <c r="N17" s="20" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="O17" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P17" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q17" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>GX20190711112419619</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>43657.475</v>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>严思雨</t>
+        </is>
+      </c>
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>18751994386</t>
+        </is>
+      </c>
+      <c r="F18" s="12" t="n">
+        <v>43658.75</v>
+      </c>
+      <c r="G18" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H18" s="14" t="n">
+        <v>43660.75</v>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J18" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K18" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L18" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M18" s="19" t="inlineStr">
+        <is>
+          <t>苏A88Y9W</t>
+        </is>
+      </c>
+      <c r="N18" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O18" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P18" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q18" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>GX20190710175150307</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>43656.74375</v>
+      </c>
+      <c r="D19" s="10" t="inlineStr">
+        <is>
+          <t>李超</t>
+        </is>
+      </c>
+      <c r="E19" s="11" t="inlineStr">
+        <is>
+          <t>18936002267</t>
+        </is>
+      </c>
+      <c r="F19" s="12" t="n">
+        <v>43656.740277777775</v>
+      </c>
+      <c r="G19" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H19" s="14" t="n">
+        <v>43658.740277777775</v>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J19" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K19" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L19" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M19" s="19" t="inlineStr">
+        <is>
+          <t>苏A155AA</t>
+        </is>
+      </c>
+      <c r="N19" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O19" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P19" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q19" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
           <t>GX20190709103431422</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>短租</t>
         </is>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C20" s="9" t="n">
         <v>43655.44027777778</v>
       </c>
-      <c r="D13" s="10" t="inlineStr">
+      <c r="D20" s="10" t="inlineStr">
         <is>
           <t>葛一鸣</t>
         </is>
       </c>
-      <c r="E13" s="11" t="inlineStr">
+      <c r="E20" s="11" t="inlineStr">
         <is>
           <t>13813810724</t>
         </is>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F20" s="12" t="n">
         <v>43655.708333333336</v>
       </c>
-      <c r="G13" s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H13" s="14" t="n">
+      <c r="G20" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H20" s="14" t="n">
         <v>43657.708333333336</v>
       </c>
-      <c r="I13" s="15" t="inlineStr">
+      <c r="I20" s="15" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="J13" s="16" t="inlineStr">
-        <is>
-          <t>广汽丰田南京大政仙尧路店</t>
-        </is>
-      </c>
-      <c r="K13" s="17" t="inlineStr">
-        <is>
-          <t>广汽丰田南京大政仙尧路店</t>
-        </is>
-      </c>
-      <c r="L13" s="18" t="inlineStr">
+      <c r="J20" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K20" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L20" s="18" t="inlineStr">
         <is>
           <t>第八代凯美瑞双擎</t>
         </is>
       </c>
-      <c r="M13" s="19" t="inlineStr">
+      <c r="M20" s="19" t="inlineStr">
         <is>
           <t>苏A666AP</t>
         </is>
       </c>
-      <c r="N13" s="20" t="n">
+      <c r="N20" s="20" t="n">
         <v>18.0</v>
       </c>
-      <c r="O13" s="21" t="inlineStr">
+      <c r="O20" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P13" s="22" t="inlineStr">
+      <c r="P20" s="22" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q13" s="23" t="inlineStr">
+      <c r="Q20" s="23" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/运营数据/南京.xlsx
+++ b/运营数据/南京.xlsx
@@ -341,7 +341,7 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>GX20190731151849646</t>
+          <t>GX20190819091252578</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
@@ -350,20 +350,20 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>43677.6375</v>
+        <v>43696.38333333333</v>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>刘李恒</t>
+          <t>13851587139</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>13062500022</t>
+          <t>13851587139</t>
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>43677.729166666664</v>
+        <v>43696.479166666664</v>
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
@@ -371,21 +371,21 @@
         </is>
       </c>
       <c r="H3" s="14" t="n">
-        <v>43679.729166666664</v>
+        <v>43701.479166666664</v>
       </c>
       <c r="I3" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京长益大厂店</t>
         </is>
       </c>
       <c r="K3" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京长益大厂店</t>
         </is>
       </c>
       <c r="L3" s="18" t="inlineStr">
@@ -395,11 +395,11 @@
       </c>
       <c r="M3" s="19" t="inlineStr">
         <is>
-          <t>苏A666AP</t>
+          <t>苏A233HR</t>
         </is>
       </c>
       <c r="N3" s="20" t="n">
-        <v>49.0</v>
+        <v>17.0</v>
       </c>
       <c r="O3" s="21" t="inlineStr">
         <is>
@@ -420,7 +420,7 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>GX20190730124113177</t>
+          <t>GX20190818165921601</t>
         </is>
       </c>
       <c r="B4" s="8" t="inlineStr">
@@ -429,20 +429,20 @@
         </is>
       </c>
       <c r="C4" s="9" t="n">
-        <v>43676.52847222222</v>
+        <v>43695.70763888889</v>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>王浩</t>
+          <t>高晓红</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>15861802435</t>
+          <t>13515126409</t>
         </is>
       </c>
       <c r="F4" s="12" t="n">
-        <v>43676.708333333336</v>
+        <v>43695.71527777778</v>
       </c>
       <c r="G4" s="13" t="inlineStr">
         <is>
@@ -450,21 +450,21 @@
         </is>
       </c>
       <c r="H4" s="14" t="n">
-        <v>43678.708333333336</v>
+        <v>43698.71527777778</v>
       </c>
       <c r="I4" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J4" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京协众东麒路店</t>
         </is>
       </c>
       <c r="K4" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京协众东麒路店</t>
         </is>
       </c>
       <c r="L4" s="18" t="inlineStr">
@@ -474,11 +474,11 @@
       </c>
       <c r="M4" s="19" t="inlineStr">
         <is>
-          <t>苏A339DD</t>
+          <t>苏A065CL</t>
         </is>
       </c>
       <c r="N4" s="20" t="n">
-        <v>49.0</v>
+        <v>66.0</v>
       </c>
       <c r="O4" s="21" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>GX20190729100522931</t>
+          <t>GX20190818163616621</t>
         </is>
       </c>
       <c r="B5" s="8" t="inlineStr">
@@ -508,20 +508,20 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>43675.42013888889</v>
+        <v>43695.691666666666</v>
       </c>
       <c r="D5" s="10" t="inlineStr">
         <is>
-          <t>余景涵</t>
+          <t>王峰</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>17602545309</t>
+          <t>18652150119</t>
         </is>
       </c>
       <c r="F5" s="12" t="n">
-        <v>43675.427083333336</v>
+        <v>43695.688888888886</v>
       </c>
       <c r="G5" s="13" t="inlineStr">
         <is>
@@ -529,11 +529,11 @@
         </is>
       </c>
       <c r="H5" s="14" t="n">
-        <v>43677.427083333336</v>
+        <v>43700.688888888886</v>
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J5" s="16" t="inlineStr">
@@ -557,11 +557,11 @@
         </is>
       </c>
       <c r="N5" s="20" t="n">
-        <v>49.0</v>
+        <v>177.0</v>
       </c>
       <c r="O5" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P5" s="22" t="inlineStr">
@@ -578,29 +578,29 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>GX20190728153451035</t>
+          <t>GX20190818153549681</t>
         </is>
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>短租</t>
+          <t>深度试驾订单</t>
         </is>
       </c>
       <c r="C6" s="9" t="n">
-        <v>43674.64861111111</v>
+        <v>43695.649305555555</v>
       </c>
       <c r="D6" s="10" t="inlineStr">
         <is>
-          <t>刘大群</t>
+          <t>─=≡Σ((( つ•̀ω•́)つ</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>13912910820</t>
+          <t>13023416156</t>
         </is>
       </c>
       <c r="F6" s="12" t="n">
-        <v>43674.729166666664</v>
+        <v>43695.729166666664</v>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="H6" s="14" t="n">
-        <v>43676.729166666664</v>
+        <v>43697.729166666664</v>
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
@@ -632,15 +632,15 @@
       </c>
       <c r="M6" s="19" t="inlineStr">
         <is>
-          <t>苏A155AA</t>
+          <t>苏A666AP</t>
         </is>
       </c>
       <c r="N6" s="20" t="n">
-        <v>299.0</v>
+        <v>710.0</v>
       </c>
       <c r="O6" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P6" s="22" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GX20190728095314442</t>
+          <t>GX20190818142646431</t>
         </is>
       </c>
       <c r="B7" s="8" t="inlineStr">
@@ -666,20 +666,20 @@
         </is>
       </c>
       <c r="C7" s="9" t="n">
-        <v>43674.41180555556</v>
+        <v>43695.60138888889</v>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>夏萍</t>
+          <t>吴翔</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>18100626119</t>
+          <t>15050558626</t>
         </is>
       </c>
       <c r="F7" s="12" t="n">
-        <v>43674.475</v>
+        <v>43695.645833333336</v>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
@@ -687,11 +687,11 @@
         </is>
       </c>
       <c r="H7" s="14" t="n">
-        <v>43676.475</v>
+        <v>43698.645833333336</v>
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J7" s="16" t="inlineStr">
@@ -715,11 +715,11 @@
         </is>
       </c>
       <c r="N7" s="20" t="n">
-        <v>49.0</v>
+        <v>66.0</v>
       </c>
       <c r="O7" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P7" s="22" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GX20190727172717019</t>
+          <t>GX20190818125817005</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -745,20 +745,20 @@
         </is>
       </c>
       <c r="C8" s="9" t="n">
-        <v>43673.72708333333</v>
+        <v>43695.54027777778</v>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>15951625076</t>
+          <t>韩杰</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>15951625076</t>
+          <t>15189821940</t>
         </is>
       </c>
       <c r="F8" s="12" t="n">
-        <v>43673.72638888889</v>
+        <v>43695.555555555555</v>
       </c>
       <c r="G8" s="13" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="H8" s="14" t="n">
-        <v>43675.72638888889</v>
+        <v>43697.555555555555</v>
       </c>
       <c r="I8" s="15" t="inlineStr">
         <is>
@@ -775,22 +775,22 @@
       </c>
       <c r="J8" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京长益大厂店</t>
         </is>
       </c>
       <c r="K8" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京长益大厂店</t>
         </is>
       </c>
       <c r="L8" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M8" s="19" t="inlineStr">
         <is>
-          <t>苏A666AP</t>
+          <t>苏A917BC</t>
         </is>
       </c>
       <c r="N8" s="20" t="n">
@@ -798,7 +798,7 @@
       </c>
       <c r="O8" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P8" s="22" t="inlineStr">
@@ -815,7 +815,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GX20190726103613277</t>
+          <t>GX20190818124954696</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -824,20 +824,20 @@
         </is>
       </c>
       <c r="C9" s="9" t="n">
-        <v>43672.441666666666</v>
+        <v>43695.53402777778</v>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>袁时冬</t>
+          <t>韩杰</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>15895888527</t>
+          <t>15189821940</t>
         </is>
       </c>
       <c r="F9" s="12" t="n">
-        <v>43689.75</v>
+        <v>43695.625</v>
       </c>
       <c r="G9" s="13" t="inlineStr">
         <is>
@@ -845,39 +845,39 @@
         </is>
       </c>
       <c r="H9" s="14" t="n">
-        <v>43692.75</v>
+        <v>43702.625</v>
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J9" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京长益大厂店</t>
         </is>
       </c>
       <c r="K9" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京长益大厂店</t>
         </is>
       </c>
       <c r="L9" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
-        </is>
-      </c>
-      <c r="M9" s="19" t="inlineStr">
-        <is>
-          <t>苏A88Y9W</t>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N9" s="20" t="n">
-        <v>445.0</v>
+        <v>1035.0</v>
       </c>
       <c r="O9" s="21" t="inlineStr">
         <is>
-          <t>已排车</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P9" s="22" t="inlineStr">
@@ -894,7 +894,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GX20190720164155032</t>
+          <t>GX20190818101818073</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -903,20 +903,20 @@
         </is>
       </c>
       <c r="C10" s="9" t="n">
-        <v>43666.69513888889</v>
+        <v>43695.42916666667</v>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>张磊</t>
+          <t>李玥</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>13655193117</t>
+          <t>15852920517</t>
         </is>
       </c>
       <c r="F10" s="12" t="n">
-        <v>43666.694444444445</v>
+        <v>43695.729166666664</v>
       </c>
       <c r="G10" s="13" t="inlineStr">
         <is>
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="14" t="n">
-        <v>43670.694444444445</v>
+        <v>43698.729166666664</v>
       </c>
       <c r="I10" s="15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J10" s="16" t="inlineStr">
@@ -943,20 +943,20 @@
       </c>
       <c r="L10" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
+          <t>第八代凯美瑞双擎</t>
         </is>
       </c>
       <c r="M10" s="19" t="inlineStr">
         <is>
-          <t>苏AY7J67</t>
+          <t>苏A316HD</t>
         </is>
       </c>
       <c r="N10" s="20" t="n">
-        <v>499.0</v>
+        <v>66.0</v>
       </c>
       <c r="O10" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P10" s="22" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GX20190720101128160</t>
+          <t>GX20190817153130158</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
@@ -982,20 +982,20 @@
         </is>
       </c>
       <c r="C11" s="9" t="n">
-        <v>43666.424305555556</v>
+        <v>43694.646527777775</v>
       </c>
       <c r="D11" s="10" t="inlineStr">
         <is>
-          <t>杨辉</t>
+          <t>徐胜</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>17372969927</t>
+          <t>13952019619</t>
         </is>
       </c>
       <c r="F11" s="12" t="n">
-        <v>43666.46597222222</v>
+        <v>43694.64513888889</v>
       </c>
       <c r="G11" s="13" t="inlineStr">
         <is>
@@ -1003,11 +1003,11 @@
         </is>
       </c>
       <c r="H11" s="14" t="n">
-        <v>43668.46597222222</v>
+        <v>43697.64513888889</v>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J11" s="16" t="inlineStr">
@@ -1031,11 +1031,11 @@
         </is>
       </c>
       <c r="N11" s="20" t="n">
-        <v>199.0</v>
+        <v>1075.0</v>
       </c>
       <c r="O11" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P11" s="22" t="inlineStr">
@@ -1052,7 +1052,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GX20190720100950285</t>
+          <t>GX20190817131646461</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -1061,20 +1061,20 @@
         </is>
       </c>
       <c r="C12" s="9" t="n">
-        <v>43666.42291666667</v>
+        <v>43694.552777777775</v>
       </c>
       <c r="D12" s="10" t="inlineStr">
         <is>
-          <t>许升松</t>
+          <t>常小兵</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>13951701359</t>
+          <t>15380966895</t>
         </is>
       </c>
       <c r="F12" s="12" t="n">
-        <v>43666.46597222222</v>
+        <v>43694.59375</v>
       </c>
       <c r="G12" s="13" t="inlineStr">
         <is>
@@ -1082,39 +1082,39 @@
         </is>
       </c>
       <c r="H12" s="14" t="n">
-        <v>43668.46597222222</v>
+        <v>43697.59375</v>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J12" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京协众东麒路店</t>
+          <t>广汽丰田南京大政仙尧路店</t>
         </is>
       </c>
       <c r="K12" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京协众东麒路店</t>
+          <t>广汽丰田南京大政仙尧路店</t>
         </is>
       </c>
       <c r="L12" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M12" s="19" t="inlineStr">
         <is>
-          <t>苏A065CL</t>
+          <t>苏A356BV</t>
         </is>
       </c>
       <c r="N12" s="20" t="n">
-        <v>99.0</v>
+        <v>319.0</v>
       </c>
       <c r="O12" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P12" s="22" t="inlineStr">
@@ -1131,7 +1131,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GX20190719093744791</t>
+          <t>GX20190817100622324</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
@@ -1140,20 +1140,20 @@
         </is>
       </c>
       <c r="C13" s="9" t="n">
-        <v>43665.40069444444</v>
+        <v>43694.42083333333</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>杨辉</t>
+          <t>王扣宝</t>
         </is>
       </c>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>17372969927</t>
+          <t>13851993173</t>
         </is>
       </c>
       <c r="F13" s="12" t="n">
-        <v>43665.73333333333</v>
+        <v>43694.520833333336</v>
       </c>
       <c r="G13" s="13" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="H13" s="14" t="n">
-        <v>43667.73333333333</v>
+        <v>43696.520833333336</v>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
@@ -1170,26 +1170,26 @@
       </c>
       <c r="J13" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京协众东麒路店</t>
+          <t>广汽丰田南京大政仙尧路店</t>
         </is>
       </c>
       <c r="K13" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京协众东麒路店</t>
+          <t>广汽丰田南京大政仙尧路店</t>
         </is>
       </c>
       <c r="L13" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t/>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M13" s="19" t="inlineStr">
+        <is>
+          <t>苏A356BV</t>
         </is>
       </c>
       <c r="N13" s="20" t="n">
-        <v>710.0</v>
+        <v>336.0</v>
       </c>
       <c r="O13" s="21" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GX20190715174319611</t>
+          <t>GX20190817094550379</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -1219,20 +1219,20 @@
         </is>
       </c>
       <c r="C14" s="9" t="n">
-        <v>43661.73819444444</v>
+        <v>43694.40625</v>
       </c>
       <c r="D14" s="10" t="inlineStr">
         <is>
-          <t>许升松</t>
+          <t>王扣宝</t>
         </is>
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>13951701359</t>
+          <t>13851993173</t>
         </is>
       </c>
       <c r="F14" s="12" t="n">
-        <v>43661.7375</v>
+        <v>43694.5</v>
       </c>
       <c r="G14" s="13" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="H14" s="14" t="n">
-        <v>43663.7375</v>
+        <v>43696.5</v>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
@@ -1249,12 +1249,12 @@
       </c>
       <c r="J14" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京长益大厂店</t>
+          <t>广汽丰田南京大政仙尧路店</t>
         </is>
       </c>
       <c r="K14" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京长益大厂店</t>
+          <t>广汽丰田南京大政仙尧路店</t>
         </is>
       </c>
       <c r="L14" s="18" t="inlineStr">
@@ -1262,17 +1262,17 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M14" s="19" t="inlineStr">
-        <is>
-          <t>苏A356BV</t>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
       <c r="N14" s="20" t="n">
-        <v>49.0</v>
+        <v>136.0</v>
       </c>
       <c r="O14" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取消</t>
         </is>
       </c>
       <c r="P14" s="22" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GX20190714130933760</t>
+          <t>GX20190816175726315</t>
         </is>
       </c>
       <c r="B15" s="8" t="inlineStr">
@@ -1298,20 +1298,20 @@
         </is>
       </c>
       <c r="C15" s="9" t="n">
-        <v>43660.54791666667</v>
+        <v>43693.74791666667</v>
       </c>
       <c r="D15" s="10" t="inlineStr">
         <is>
-          <t>夏泽宇</t>
+          <t>何晓寅</t>
         </is>
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>18914691828</t>
+          <t>17712859198</t>
         </is>
       </c>
       <c r="F15" s="12" t="n">
-        <v>43661.75</v>
+        <v>43693.76388888889</v>
       </c>
       <c r="G15" s="13" t="inlineStr">
         <is>
@@ -1319,11 +1319,11 @@
         </is>
       </c>
       <c r="H15" s="14" t="n">
-        <v>43663.75</v>
+        <v>43696.76388888889</v>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J15" s="16" t="inlineStr">
@@ -1343,15 +1343,15 @@
       </c>
       <c r="M15" s="19" t="inlineStr">
         <is>
-          <t>苏A88Y9W</t>
+          <t>苏A618CF</t>
         </is>
       </c>
       <c r="N15" s="20" t="n">
-        <v>49.0</v>
+        <v>1075.0</v>
       </c>
       <c r="O15" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P15" s="22" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GX20190713092008563</t>
+          <t>GX20190816151806511</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -1377,20 +1377,20 @@
         </is>
       </c>
       <c r="C16" s="9" t="n">
-        <v>43659.38888888889</v>
+        <v>43693.6375</v>
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>孙伟</t>
+          <t>施赛丹</t>
         </is>
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>13584030098</t>
+          <t>13851763271</t>
         </is>
       </c>
       <c r="F16" s="12" t="n">
-        <v>43659.4375</v>
+        <v>43693.645833333336</v>
       </c>
       <c r="G16" s="13" t="inlineStr">
         <is>
@@ -1398,11 +1398,11 @@
         </is>
       </c>
       <c r="H16" s="14" t="n">
-        <v>43661.4375</v>
+        <v>43696.645833333336</v>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J16" s="16" t="inlineStr">
@@ -1417,20 +1417,20 @@
       </c>
       <c r="L16" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M16" s="19" t="inlineStr">
         <is>
-          <t>苏A618CF</t>
+          <t>苏A13Y9Q</t>
         </is>
       </c>
       <c r="N16" s="20" t="n">
-        <v>49.0</v>
+        <v>769.0</v>
       </c>
       <c r="O16" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P16" s="22" t="inlineStr">
@@ -1447,7 +1447,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>GX20190711175128019</t>
+          <t>GX20190816145518763</t>
         </is>
       </c>
       <c r="B17" s="8" t="inlineStr">
@@ -1456,20 +1456,20 @@
         </is>
       </c>
       <c r="C17" s="9" t="n">
-        <v>43657.74375</v>
+        <v>43693.62152777778</v>
       </c>
       <c r="D17" s="10" t="inlineStr">
         <is>
-          <t>戎超</t>
+          <t>张晓勇</t>
         </is>
       </c>
       <c r="E17" s="11" t="inlineStr">
         <is>
-          <t>13404170317</t>
+          <t>15751882941</t>
         </is>
       </c>
       <c r="F17" s="12" t="n">
-        <v>43658.666666666664</v>
+        <v>43693.625</v>
       </c>
       <c r="G17" s="13" t="inlineStr">
         <is>
@@ -1477,35 +1477,35 @@
         </is>
       </c>
       <c r="H17" s="14" t="n">
-        <v>43660.666666666664</v>
+        <v>43694.625</v>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J17" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京协众东麒路店</t>
         </is>
       </c>
       <c r="K17" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田南京大政仙尧路店</t>
+          <t>广汽丰田南京协众东麒路店</t>
         </is>
       </c>
       <c r="L17" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
+          <t>C-HR</t>
         </is>
       </c>
       <c r="M17" s="19" t="inlineStr">
         <is>
-          <t>苏A666AP</t>
+          <t>苏A219AR</t>
         </is>
       </c>
       <c r="N17" s="20" t="n">
-        <v>160.0</v>
+        <v>3.0</v>
       </c>
       <c r="O17" s="21" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>GX20190711112419619</t>
+          <t>GX20190816110514913</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -1535,20 +1535,20 @@
         </is>
       </c>
       <c r="C18" s="9" t="n">
-        <v>43657.475</v>
+        <v>43693.461805555555</v>
       </c>
       <c r="D18" s="10" t="inlineStr">
         <is>
-          <t>严思雨</t>
+          <t>徐定凯</t>
         </is>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>18751994386</t>
+          <t>13952091234</t>
         </is>
       </c>
       <c r="F18" s="12" t="n">
-        <v>43658.75</v>
+        <v>43693.541666666664</v>
       </c>
       <c r="G18" s="13" t="inlineStr">
         <is>
@@ -1556,11 +1556,11 @@
         </is>
       </c>
       <c r="H18" s="14" t="n">
-        <v>43660.75</v>
+        <v>43697.541666666664</v>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J18" s="16" t="inlineStr">
@@ -1584,11 +1584,11 @@
         </is>
       </c>
       <c r="N18" s="20" t="n">
-        <v>49.0</v>
+        <v>91.0</v>
       </c>
       <c r="O18" s="21" t="inlineStr">
         <is>
-          <t>已还车</t>
+          <t>已取车</t>
         </is>
       </c>
       <c r="P18" s="22" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>GX20190710175150307</t>
+          <t>GX20190816084359308</t>
         </is>
       </c>
       <c r="B19" s="8" t="inlineStr">
@@ -1614,20 +1614,20 @@
         </is>
       </c>
       <c r="C19" s="9" t="n">
-        <v>43656.74375</v>
+        <v>43693.36319444444</v>
       </c>
       <c r="D19" s="10" t="inlineStr">
         <is>
-          <t>李超</t>
+          <t>刘李恒</t>
         </is>
       </c>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>18936002267</t>
+          <t>13062500022</t>
         </is>
       </c>
       <c r="F19" s="12" t="n">
-        <v>43656.740277777775</v>
+        <v>43693.75</v>
       </c>
       <c r="G19" s="13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="H19" s="14" t="n">
-        <v>43658.740277777775</v>
+        <v>43695.75</v>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
@@ -1684,77 +1684,4738 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
+          <t>GX20190815150716763</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>43692.62986111111</v>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>袁金保</t>
+        </is>
+      </c>
+      <c r="E20" s="11" t="inlineStr">
+        <is>
+          <t>13851623389</t>
+        </is>
+      </c>
+      <c r="F20" s="12" t="n">
+        <v>43693.67361111111</v>
+      </c>
+      <c r="G20" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H20" s="14" t="n">
+        <v>43696.67361111111</v>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J20" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K20" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L20" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M20" s="19" t="inlineStr">
+        <is>
+          <t>苏A826DS</t>
+        </is>
+      </c>
+      <c r="N20" s="20" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="O20" s="21" t="inlineStr">
+        <is>
+          <t>已取车</t>
+        </is>
+      </c>
+      <c r="P20" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q20" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>GX20190815135546422</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>43692.57986111111</v>
+      </c>
+      <c r="D21" s="10" t="inlineStr">
+        <is>
+          <t>董思友</t>
+        </is>
+      </c>
+      <c r="E21" s="11" t="inlineStr">
+        <is>
+          <t>18261935970</t>
+        </is>
+      </c>
+      <c r="F21" s="12" t="n">
+        <v>43692.59027777778</v>
+      </c>
+      <c r="G21" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H21" s="14" t="n">
+        <v>43695.59027777778</v>
+      </c>
+      <c r="I21" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J21" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K21" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L21" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M21" s="19" t="inlineStr">
+        <is>
+          <t>苏AY7J67</t>
+        </is>
+      </c>
+      <c r="N21" s="20" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O21" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P21" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q21" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>GX20190815105700156</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>43692.45625</v>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>蔡继兴</t>
+        </is>
+      </c>
+      <c r="E22" s="11" t="inlineStr">
+        <is>
+          <t>13016959290</t>
+        </is>
+      </c>
+      <c r="F22" s="12" t="n">
+        <v>43692.46527777778</v>
+      </c>
+      <c r="G22" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>43695.46527777778</v>
+      </c>
+      <c r="I22" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J22" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K22" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L22" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M22" s="19" t="inlineStr">
+        <is>
+          <t>苏A065CL</t>
+        </is>
+      </c>
+      <c r="N22" s="20" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="O22" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P22" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q22" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>GX20190814230857939</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>43691.96388888889</v>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>高馨（程龙）</t>
+        </is>
+      </c>
+      <c r="E23" s="11" t="inlineStr">
+        <is>
+          <t>18951966060</t>
+        </is>
+      </c>
+      <c r="F23" s="12" t="n">
+        <v>43691.729166666664</v>
+      </c>
+      <c r="G23" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>43692.729166666664</v>
+      </c>
+      <c r="I23" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J23" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K23" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L23" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M23" s="19" t="inlineStr">
+        <is>
+          <t>苏A219AR</t>
+        </is>
+      </c>
+      <c r="N23" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P23" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q23" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>GX20190814171603506</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>43691.71944444445</v>
+      </c>
+      <c r="D24" s="10" t="inlineStr">
+        <is>
+          <t>董博</t>
+        </is>
+      </c>
+      <c r="E24" s="11" t="inlineStr">
+        <is>
+          <t>15651861566</t>
+        </is>
+      </c>
+      <c r="F24" s="12" t="n">
+        <v>43691.729166666664</v>
+      </c>
+      <c r="G24" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H24" s="14" t="n">
+        <v>43694.729166666664</v>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J24" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K24" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L24" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M24" s="19" t="inlineStr">
+        <is>
+          <t>苏A666AP</t>
+        </is>
+      </c>
+      <c r="N24" s="20" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="O24" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P24" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q24" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>GX20190814145900737</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>43691.62430555555</v>
+      </c>
+      <c r="D25" s="10" t="inlineStr">
+        <is>
+          <t>施赛丹</t>
+        </is>
+      </c>
+      <c r="E25" s="11" t="inlineStr">
+        <is>
+          <t>13851763271</t>
+        </is>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>43691.63888888889</v>
+      </c>
+      <c r="G25" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>43693.63888888889</v>
+      </c>
+      <c r="I25" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J25" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K25" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L25" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M25" s="19" t="inlineStr">
+        <is>
+          <t>苏A13Y9Q</t>
+        </is>
+      </c>
+      <c r="N25" s="20" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="O25" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P25" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q25" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>GX20190814104417956</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>43691.447222222225</v>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>周小苗</t>
+        </is>
+      </c>
+      <c r="E26" s="11" t="inlineStr">
+        <is>
+          <t>15365011700</t>
+        </is>
+      </c>
+      <c r="F26" s="12" t="n">
+        <v>43691.458333333336</v>
+      </c>
+      <c r="G26" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H26" s="14" t="n">
+        <v>43694.458333333336</v>
+      </c>
+      <c r="I26" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J26" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K26" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L26" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M26" s="19" t="inlineStr">
+        <is>
+          <t>苏A265BE</t>
+        </is>
+      </c>
+      <c r="N26" s="20" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="O26" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P26" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q26" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>GX20190813123623537</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>43690.525</v>
+      </c>
+      <c r="D27" s="10" t="inlineStr">
+        <is>
+          <t>祁正超</t>
+        </is>
+      </c>
+      <c r="E27" s="11" t="inlineStr">
+        <is>
+          <t>17715872016</t>
+        </is>
+      </c>
+      <c r="F27" s="12" t="n">
+        <v>43690.53472222222</v>
+      </c>
+      <c r="G27" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H27" s="14" t="n">
+        <v>43694.53472222222</v>
+      </c>
+      <c r="I27" s="15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J27" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京长益大厂店</t>
+        </is>
+      </c>
+      <c r="K27" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京长益大厂店</t>
+        </is>
+      </c>
+      <c r="L27" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M27" s="19" t="inlineStr">
+        <is>
+          <t>苏A917BC</t>
+        </is>
+      </c>
+      <c r="N27" s="20" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="O27" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P27" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q27" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>GX20190813111730239</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>43690.470138888886</v>
+      </c>
+      <c r="D28" s="10" t="inlineStr">
+        <is>
+          <t>周强</t>
+        </is>
+      </c>
+      <c r="E28" s="11" t="inlineStr">
+        <is>
+          <t>13260809077</t>
+        </is>
+      </c>
+      <c r="F28" s="12" t="n">
+        <v>43690.506944444445</v>
+      </c>
+      <c r="G28" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H28" s="14" t="n">
+        <v>43692.506944444445</v>
+      </c>
+      <c r="I28" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J28" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K28" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L28" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M28" s="19" t="inlineStr">
+        <is>
+          <t>苏A155AA</t>
+        </is>
+      </c>
+      <c r="N28" s="20" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="O28" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P28" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q28" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>GX20190812171233256</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>43689.71666666667</v>
+      </c>
+      <c r="D29" s="10" t="inlineStr">
+        <is>
+          <t>查乐</t>
+        </is>
+      </c>
+      <c r="E29" s="11" t="inlineStr">
+        <is>
+          <t>19962099927</t>
+        </is>
+      </c>
+      <c r="F29" s="12" t="n">
+        <v>43689.708333333336</v>
+      </c>
+      <c r="G29" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H29" s="14" t="n">
+        <v>43691.708333333336</v>
+      </c>
+      <c r="I29" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J29" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K29" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L29" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M29" s="19" t="inlineStr">
+        <is>
+          <t>苏A219AR</t>
+        </is>
+      </c>
+      <c r="N29" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O29" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P29" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q29" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>GX20190812130019038</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>43689.541666666664</v>
+      </c>
+      <c r="D30" s="10" t="inlineStr">
+        <is>
+          <t>史丛洋</t>
+        </is>
+      </c>
+      <c r="E30" s="11" t="inlineStr">
+        <is>
+          <t>13770758301</t>
+        </is>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>43689.708333333336</v>
+      </c>
+      <c r="G30" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H30" s="14" t="n">
+        <v>43692.708333333336</v>
+      </c>
+      <c r="I30" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J30" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K30" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L30" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M30" s="19" t="inlineStr">
+        <is>
+          <t>苏A88Y9W</t>
+        </is>
+      </c>
+      <c r="N30" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O30" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P30" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q30" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>GX20190811173828752</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>43688.73472222222</v>
+      </c>
+      <c r="D31" s="10" t="inlineStr">
+        <is>
+          <t>王传玉</t>
+        </is>
+      </c>
+      <c r="E31" s="11" t="inlineStr">
+        <is>
+          <t>18962689196</t>
+        </is>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>43688.739583333336</v>
+      </c>
+      <c r="G31" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H31" s="14" t="n">
+        <v>43691.739583333336</v>
+      </c>
+      <c r="I31" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J31" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K31" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L31" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M31" s="19" t="inlineStr">
+        <is>
+          <t>苏A219AR</t>
+        </is>
+      </c>
+      <c r="N31" s="20" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="O31" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P31" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q31" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>GX20190811172934977</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>43688.728472222225</v>
+      </c>
+      <c r="D32" s="10" t="inlineStr">
+        <is>
+          <t>王传玉</t>
+        </is>
+      </c>
+      <c r="E32" s="11" t="inlineStr">
+        <is>
+          <t>18962689196</t>
+        </is>
+      </c>
+      <c r="F32" s="12" t="n">
+        <v>43688.739583333336</v>
+      </c>
+      <c r="G32" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H32" s="14" t="n">
+        <v>43694.739583333336</v>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J32" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K32" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L32" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M32" s="19" t="inlineStr">
+        <is>
+          <t>苏A219AR</t>
+        </is>
+      </c>
+      <c r="N32" s="20" t="n">
+        <v>693.0</v>
+      </c>
+      <c r="O32" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P32" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q32" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>GX20190811120838835</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>43688.50555555556</v>
+      </c>
+      <c r="D33" s="10" t="inlineStr">
+        <is>
+          <t>陈坤</t>
+        </is>
+      </c>
+      <c r="E33" s="11" t="inlineStr">
+        <is>
+          <t>18626460554</t>
+        </is>
+      </c>
+      <c r="F33" s="12" t="n">
+        <v>43688.51388888889</v>
+      </c>
+      <c r="G33" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H33" s="14" t="n">
+        <v>43691.51388888889</v>
+      </c>
+      <c r="I33" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J33" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K33" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L33" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M33" s="19" t="inlineStr">
+        <is>
+          <t>苏AY7J67</t>
+        </is>
+      </c>
+      <c r="N33" s="20" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O33" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P33" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q33" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>GX20190810221801916</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>43687.92916666667</v>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
+        <is>
+          <t>杨勇</t>
+        </is>
+      </c>
+      <c r="E34" s="11" t="inlineStr">
+        <is>
+          <t>19962099930</t>
+        </is>
+      </c>
+      <c r="F34" s="12" t="n">
+        <v>43687.729166666664</v>
+      </c>
+      <c r="G34" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H34" s="14" t="n">
+        <v>43688.729166666664</v>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J34" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K34" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L34" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M34" s="19" t="inlineStr">
+        <is>
+          <t>苏A265BE</t>
+        </is>
+      </c>
+      <c r="N34" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O34" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P34" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q34" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>GX20190810160300832</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>43687.66875</v>
+      </c>
+      <c r="D35" s="10" t="inlineStr">
+        <is>
+          <t>杨辉</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr">
+        <is>
+          <t>17372969927</t>
+        </is>
+      </c>
+      <c r="F35" s="12" t="n">
+        <v>43687.677083333336</v>
+      </c>
+      <c r="G35" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H35" s="14" t="n">
+        <v>43689.677083333336</v>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J35" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K35" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L35" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M35" s="19" t="inlineStr">
+        <is>
+          <t>苏A88Y9W</t>
+        </is>
+      </c>
+      <c r="N35" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O35" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P35" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q35" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>GX20190810134542772</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>43687.572916666664</v>
+      </c>
+      <c r="D36" s="10" t="inlineStr">
+        <is>
+          <t>吴子豪</t>
+        </is>
+      </c>
+      <c r="E36" s="11" t="inlineStr">
+        <is>
+          <t>18951088543</t>
+        </is>
+      </c>
+      <c r="F36" s="12" t="n">
+        <v>43687.666666666664</v>
+      </c>
+      <c r="G36" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>43689.666666666664</v>
+      </c>
+      <c r="I36" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J36" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K36" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L36" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M36" s="19" t="inlineStr">
+        <is>
+          <t>苏A666AP</t>
+        </is>
+      </c>
+      <c r="N36" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O36" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P36" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q36" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>GX20190810133315998</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>43687.56458333333</v>
+      </c>
+      <c r="D37" s="10" t="inlineStr">
+        <is>
+          <t>吴子豪</t>
+        </is>
+      </c>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>18951088543</t>
+        </is>
+      </c>
+      <c r="F37" s="12" t="n">
+        <v>43687.645833333336</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H37" s="14" t="n">
+        <v>43689.645833333336</v>
+      </c>
+      <c r="I37" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J37" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K37" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L37" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N37" s="20" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="O37" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P37" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q37" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>GX20190810111858877</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>43687.47083333333</v>
+      </c>
+      <c r="D38" s="10" t="inlineStr">
+        <is>
+          <t>翟记文</t>
+        </is>
+      </c>
+      <c r="E38" s="11" t="inlineStr">
+        <is>
+          <t>13770955707</t>
+        </is>
+      </c>
+      <c r="F38" s="12" t="n">
+        <v>43687.47083333333</v>
+      </c>
+      <c r="G38" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>43689.47083333333</v>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J38" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K38" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L38" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M38" s="19" t="inlineStr">
+        <is>
+          <t>苏A356BV</t>
+        </is>
+      </c>
+      <c r="N38" s="20" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="O38" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P38" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q38" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>GX20190809171808900</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="n">
+        <v>43686.72083333333</v>
+      </c>
+      <c r="D39" s="10" t="inlineStr">
+        <is>
+          <t>王宇</t>
+        </is>
+      </c>
+      <c r="E39" s="11" t="inlineStr">
+        <is>
+          <t>13814509337</t>
+        </is>
+      </c>
+      <c r="F39" s="12" t="n">
+        <v>43687.381944444445</v>
+      </c>
+      <c r="G39" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H39" s="14" t="n">
+        <v>43689.381944444445</v>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J39" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京长益大厂店</t>
+        </is>
+      </c>
+      <c r="K39" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京长益大厂店</t>
+        </is>
+      </c>
+      <c r="L39" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M39" s="19" t="inlineStr">
+        <is>
+          <t>苏A971HW</t>
+        </is>
+      </c>
+      <c r="N39" s="20" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="O39" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P39" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q39" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t>GX20190809134158929</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="n">
+        <v>43686.57013888889</v>
+      </c>
+      <c r="D40" s="10" t="inlineStr">
+        <is>
+          <t>陈治国</t>
+        </is>
+      </c>
+      <c r="E40" s="11" t="inlineStr">
+        <is>
+          <t>13584057845</t>
+        </is>
+      </c>
+      <c r="F40" s="12" t="n">
+        <v>43686.666666666664</v>
+      </c>
+      <c r="G40" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H40" s="14" t="n">
+        <v>43688.666666666664</v>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J40" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K40" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L40" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M40" s="19" t="inlineStr">
+        <is>
+          <t>苏A315CY</t>
+        </is>
+      </c>
+      <c r="N40" s="20" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="O40" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P40" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q40" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>GX20190809125618625</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="n">
+        <v>43686.53888888889</v>
+      </c>
+      <c r="D41" s="10" t="inlineStr">
+        <is>
+          <t>马威</t>
+        </is>
+      </c>
+      <c r="E41" s="11" t="inlineStr">
+        <is>
+          <t>15295551061</t>
+        </is>
+      </c>
+      <c r="F41" s="12" t="n">
+        <v>43686.75</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H41" s="14" t="n">
+        <v>43688.75</v>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J41" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K41" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L41" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M41" s="19" t="inlineStr">
+        <is>
+          <t>苏A155AA</t>
+        </is>
+      </c>
+      <c r="N41" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O41" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P41" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q41" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>GX20190809091102635</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="n">
+        <v>43686.38263888889</v>
+      </c>
+      <c r="D42" s="10" t="inlineStr">
+        <is>
+          <t>韦浩</t>
+        </is>
+      </c>
+      <c r="E42" s="11" t="inlineStr">
+        <is>
+          <t>18115478701</t>
+        </is>
+      </c>
+      <c r="F42" s="12" t="n">
+        <v>43686.46527777778</v>
+      </c>
+      <c r="G42" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H42" s="14" t="n">
+        <v>43688.46527777778</v>
+      </c>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J42" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K42" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L42" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M42" s="19" t="inlineStr">
+        <is>
+          <t>苏A826DS</t>
+        </is>
+      </c>
+      <c r="N42" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O42" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P42" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q42" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>GX20190808171127011</t>
+        </is>
+      </c>
+      <c r="B43" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="n">
+        <v>43685.71597222222</v>
+      </c>
+      <c r="D43" s="10" t="inlineStr">
+        <is>
+          <t>杨勇</t>
+        </is>
+      </c>
+      <c r="E43" s="11" t="inlineStr">
+        <is>
+          <t>13913342336</t>
+        </is>
+      </c>
+      <c r="F43" s="12" t="n">
+        <v>43685.73472222222</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H43" s="14" t="n">
+        <v>43687.73472222222</v>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J43" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K43" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L43" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M43" s="19" t="inlineStr">
+        <is>
+          <t>苏A265BE</t>
+        </is>
+      </c>
+      <c r="N43" s="20" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="O43" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P43" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q43" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>GX20190808151050606</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="n">
+        <v>43685.631944444445</v>
+      </c>
+      <c r="D44" s="10" t="inlineStr">
+        <is>
+          <t>许培东</t>
+        </is>
+      </c>
+      <c r="E44" s="11" t="inlineStr">
+        <is>
+          <t>13851741421</t>
+        </is>
+      </c>
+      <c r="F44" s="12" t="n">
+        <v>43685.62847222222</v>
+      </c>
+      <c r="G44" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H44" s="14" t="n">
+        <v>43689.62847222222</v>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J44" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K44" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L44" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M44" s="19" t="inlineStr">
+        <is>
+          <t>苏A13Y9Q</t>
+        </is>
+      </c>
+      <c r="N44" s="20" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="O44" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P44" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q44" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
+          <t>GX20190808130259117</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="n">
+        <v>43685.54305555556</v>
+      </c>
+      <c r="D45" s="10" t="inlineStr">
+        <is>
+          <t>史芳永</t>
+        </is>
+      </c>
+      <c r="E45" s="11" t="inlineStr">
+        <is>
+          <t>15951812425</t>
+        </is>
+      </c>
+      <c r="F45" s="12" t="n">
+        <v>43685.54305555556</v>
+      </c>
+      <c r="G45" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H45" s="14" t="n">
+        <v>43687.54305555556</v>
+      </c>
+      <c r="I45" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J45" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K45" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L45" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M45" s="19" t="inlineStr">
+        <is>
+          <t>苏A339DD</t>
+        </is>
+      </c>
+      <c r="N45" s="20" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="O45" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P45" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q45" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="inlineStr">
+        <is>
+          <t>GX20190808124009688</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="n">
+        <v>43685.52777777778</v>
+      </c>
+      <c r="D46" s="10" t="inlineStr">
+        <is>
+          <t>黄冬</t>
+        </is>
+      </c>
+      <c r="E46" s="11" t="inlineStr">
+        <is>
+          <t>18752002592</t>
+        </is>
+      </c>
+      <c r="F46" s="12" t="n">
+        <v>43685.541666666664</v>
+      </c>
+      <c r="G46" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H46" s="14" t="n">
+        <v>43687.541666666664</v>
+      </c>
+      <c r="I46" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J46" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K46" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L46" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M46" s="19" t="inlineStr">
+        <is>
+          <t>苏A356BV</t>
+        </is>
+      </c>
+      <c r="N46" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O46" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P46" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q46" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="inlineStr">
+        <is>
+          <t>GX20190807180503832</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="n">
+        <v>43684.75347222222</v>
+      </c>
+      <c r="D47" s="10" t="inlineStr">
+        <is>
+          <t>程龙</t>
+        </is>
+      </c>
+      <c r="E47" s="11" t="inlineStr">
+        <is>
+          <t>15951082213</t>
+        </is>
+      </c>
+      <c r="F47" s="12" t="n">
+        <v>43686.729166666664</v>
+      </c>
+      <c r="G47" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H47" s="14" t="n">
+        <v>43688.729166666664</v>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J47" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K47" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L47" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M47" s="19" t="inlineStr">
+        <is>
+          <t>苏A316HD</t>
+        </is>
+      </c>
+      <c r="N47" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O47" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P47" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q47" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="inlineStr">
+        <is>
+          <t>GX20190807180043576</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="n">
+        <v>43684.75</v>
+      </c>
+      <c r="D48" s="10" t="inlineStr">
+        <is>
+          <t>陈刘学</t>
+        </is>
+      </c>
+      <c r="E48" s="11" t="inlineStr">
+        <is>
+          <t>13305189731</t>
+        </is>
+      </c>
+      <c r="F48" s="12" t="n">
+        <v>43688.729166666664</v>
+      </c>
+      <c r="G48" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H48" s="14" t="n">
+        <v>43690.729166666664</v>
+      </c>
+      <c r="I48" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J48" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K48" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L48" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M48" s="19" t="inlineStr">
+        <is>
+          <t>苏A316HD</t>
+        </is>
+      </c>
+      <c r="N48" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O48" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P48" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q48" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="inlineStr">
+        <is>
+          <t>GX20190807170559976</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C49" s="9" t="n">
+        <v>43684.7125</v>
+      </c>
+      <c r="D49" s="10" t="inlineStr">
+        <is>
+          <t>丁磊</t>
+        </is>
+      </c>
+      <c r="E49" s="11" t="inlineStr">
+        <is>
+          <t>13770664995</t>
+        </is>
+      </c>
+      <c r="F49" s="12" t="n">
+        <v>43688.708333333336</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H49" s="14" t="n">
+        <v>43690.708333333336</v>
+      </c>
+      <c r="I49" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J49" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K49" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L49" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N49" s="20" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="O49" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P49" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q49" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="inlineStr">
+        <is>
+          <t>GX20190807125129825</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="n">
+        <v>43684.535416666666</v>
+      </c>
+      <c r="D50" s="10" t="inlineStr">
+        <is>
+          <t>陈刘学</t>
+        </is>
+      </c>
+      <c r="E50" s="11" t="inlineStr">
+        <is>
+          <t>13305189731</t>
+        </is>
+      </c>
+      <c r="F50" s="12" t="n">
+        <v>43684.631944444445</v>
+      </c>
+      <c r="G50" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H50" s="14" t="n">
+        <v>43686.631944444445</v>
+      </c>
+      <c r="I50" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J50" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K50" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L50" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M50" s="19" t="inlineStr">
+        <is>
+          <t>苏A316HD</t>
+        </is>
+      </c>
+      <c r="N50" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O50" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P50" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q50" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="inlineStr">
+        <is>
+          <t>GX20190806182433473</t>
+        </is>
+      </c>
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C51" s="9" t="n">
+        <v>43683.76666666667</v>
+      </c>
+      <c r="D51" s="10" t="inlineStr">
+        <is>
+          <t>戚纯朴</t>
+        </is>
+      </c>
+      <c r="E51" s="11" t="inlineStr">
+        <is>
+          <t>17551075382</t>
+        </is>
+      </c>
+      <c r="F51" s="12" t="n">
+        <v>43683.76527777778</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H51" s="14" t="n">
+        <v>43685.76527777778</v>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J51" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K51" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L51" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M51" s="19" t="inlineStr">
+        <is>
+          <t>苏A219AR</t>
+        </is>
+      </c>
+      <c r="N51" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O51" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P51" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q51" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="inlineStr">
+        <is>
+          <t>GX20190806144341934</t>
+        </is>
+      </c>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="n">
+        <v>43683.61319444444</v>
+      </c>
+      <c r="D52" s="10" t="inlineStr">
+        <is>
+          <t>王学芳</t>
+        </is>
+      </c>
+      <c r="E52" s="11" t="inlineStr">
+        <is>
+          <t>13082544097</t>
+        </is>
+      </c>
+      <c r="F52" s="12" t="n">
+        <v>43683.625</v>
+      </c>
+      <c r="G52" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H52" s="14" t="n">
+        <v>43685.625</v>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J52" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K52" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L52" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M52" s="19" t="inlineStr">
+        <is>
+          <t>苏A13Y9Q</t>
+        </is>
+      </c>
+      <c r="N52" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O52" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P52" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q52" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="inlineStr">
+        <is>
+          <t>GX20190806122145044</t>
+        </is>
+      </c>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C53" s="9" t="n">
+        <v>43683.51458333333</v>
+      </c>
+      <c r="D53" s="10" t="inlineStr">
+        <is>
+          <t>陈刘学</t>
+        </is>
+      </c>
+      <c r="E53" s="11" t="inlineStr">
+        <is>
+          <t>13305189731</t>
+        </is>
+      </c>
+      <c r="F53" s="12" t="n">
+        <v>43684.708333333336</v>
+      </c>
+      <c r="G53" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H53" s="14" t="n">
+        <v>43686.708333333336</v>
+      </c>
+      <c r="I53" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J53" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K53" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L53" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N53" s="20" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="O53" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P53" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q53" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t>GX20190805193924672</t>
+        </is>
+      </c>
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="n">
+        <v>43682.81875</v>
+      </c>
+      <c r="D54" s="10" t="inlineStr">
+        <is>
+          <t>耿紫健</t>
+        </is>
+      </c>
+      <c r="E54" s="11" t="inlineStr">
+        <is>
+          <t>18551634085</t>
+        </is>
+      </c>
+      <c r="F54" s="12" t="n">
+        <v>43683.333333333336</v>
+      </c>
+      <c r="G54" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H54" s="14" t="n">
+        <v>43685.333333333336</v>
+      </c>
+      <c r="I54" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J54" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K54" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L54" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M54" s="19" t="inlineStr">
+        <is>
+          <t>苏A339DD</t>
+        </is>
+      </c>
+      <c r="N54" s="20" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="O54" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P54" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q54" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="inlineStr">
+        <is>
+          <t>GX20190805171748951</t>
+        </is>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C55" s="9" t="n">
+        <v>43682.720138888886</v>
+      </c>
+      <c r="D55" s="10" t="inlineStr">
+        <is>
+          <t>陈鹤生</t>
+        </is>
+      </c>
+      <c r="E55" s="11" t="inlineStr">
+        <is>
+          <t>13851855455</t>
+        </is>
+      </c>
+      <c r="F55" s="12" t="n">
+        <v>43682.73263888889</v>
+      </c>
+      <c r="G55" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H55" s="14" t="n">
+        <v>43684.73263888889</v>
+      </c>
+      <c r="I55" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J55" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K55" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L55" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M55" s="19" t="inlineStr">
+        <is>
+          <t>苏A265BE</t>
+        </is>
+      </c>
+      <c r="N55" s="20" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="O55" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P55" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q55" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="inlineStr">
+        <is>
+          <t>GX20190805144953736</t>
+        </is>
+      </c>
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="n">
+        <v>43682.61736111111</v>
+      </c>
+      <c r="D56" s="10" t="inlineStr">
+        <is>
+          <t>刘民</t>
+        </is>
+      </c>
+      <c r="E56" s="11" t="inlineStr">
+        <is>
+          <t>13770301728</t>
+        </is>
+      </c>
+      <c r="F56" s="12" t="n">
+        <v>43682.625</v>
+      </c>
+      <c r="G56" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H56" s="14" t="n">
+        <v>43684.625</v>
+      </c>
+      <c r="I56" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J56" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K56" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L56" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M56" s="19" t="inlineStr">
+        <is>
+          <t>苏A315CY</t>
+        </is>
+      </c>
+      <c r="N56" s="20" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="O56" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P56" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q56" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="inlineStr">
+        <is>
+          <t>GX20190805110345866</t>
+        </is>
+      </c>
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C57" s="9" t="n">
+        <v>43682.46041666667</v>
+      </c>
+      <c r="D57" s="10" t="inlineStr">
+        <is>
+          <t>李维琳</t>
+        </is>
+      </c>
+      <c r="E57" s="11" t="inlineStr">
+        <is>
+          <t>18020129946</t>
+        </is>
+      </c>
+      <c r="F57" s="12" t="n">
+        <v>43682.479166666664</v>
+      </c>
+      <c r="G57" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H57" s="14" t="n">
+        <v>43684.479166666664</v>
+      </c>
+      <c r="I57" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J57" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K57" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L57" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M57" s="19" t="inlineStr">
+        <is>
+          <t>苏AY7J67</t>
+        </is>
+      </c>
+      <c r="N57" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O57" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P57" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q57" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="inlineStr">
+        <is>
+          <t>GX20190803173132005</t>
+        </is>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="n">
+        <v>43680.72986111111</v>
+      </c>
+      <c r="D58" s="10" t="inlineStr">
+        <is>
+          <t>魏宏亮</t>
+        </is>
+      </c>
+      <c r="E58" s="11" t="inlineStr">
+        <is>
+          <t>15195949810</t>
+        </is>
+      </c>
+      <c r="F58" s="12" t="n">
+        <v>43680.74652777778</v>
+      </c>
+      <c r="G58" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H58" s="14" t="n">
+        <v>43682.74652777778</v>
+      </c>
+      <c r="I58" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J58" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K58" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L58" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M58" s="19" t="inlineStr">
+        <is>
+          <t>苏A065CL</t>
+        </is>
+      </c>
+      <c r="N58" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O58" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P58" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q58" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="inlineStr">
+        <is>
+          <t>GX20190803133536567</t>
+        </is>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C59" s="9" t="n">
+        <v>43680.56597222222</v>
+      </c>
+      <c r="D59" s="10" t="inlineStr">
+        <is>
+          <t>于杰</t>
+        </is>
+      </c>
+      <c r="E59" s="11" t="inlineStr">
+        <is>
+          <t>18851927877</t>
+        </is>
+      </c>
+      <c r="F59" s="12" t="n">
+        <v>43680.73472222222</v>
+      </c>
+      <c r="G59" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H59" s="14" t="n">
+        <v>43681.375</v>
+      </c>
+      <c r="I59" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J59" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京长益大厂店</t>
+        </is>
+      </c>
+      <c r="K59" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京长益大厂店</t>
+        </is>
+      </c>
+      <c r="L59" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M59" s="19" t="inlineStr">
+        <is>
+          <t>苏A316HD</t>
+        </is>
+      </c>
+      <c r="N59" s="20" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="O59" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P59" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q59" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="inlineStr">
+        <is>
+          <t>GX20190802203642823</t>
+        </is>
+      </c>
+      <c r="B60" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C60" s="9" t="n">
+        <v>43679.85833333333</v>
+      </c>
+      <c r="D60" s="10" t="inlineStr">
+        <is>
+          <t>刘彬</t>
+        </is>
+      </c>
+      <c r="E60" s="11" t="inlineStr">
+        <is>
+          <t>18851612929</t>
+        </is>
+      </c>
+      <c r="F60" s="12" t="n">
+        <v>43679.85763888889</v>
+      </c>
+      <c r="G60" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H60" s="14" t="n">
+        <v>43680.85763888889</v>
+      </c>
+      <c r="I60" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J60" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京长益大厂店</t>
+        </is>
+      </c>
+      <c r="K60" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京长益大厂店</t>
+        </is>
+      </c>
+      <c r="L60" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M60" s="19" t="inlineStr">
+        <is>
+          <t>苏A316HD</t>
+        </is>
+      </c>
+      <c r="N60" s="20" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="O60" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P60" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q60" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="inlineStr">
+        <is>
+          <t>GX20190802152315679</t>
+        </is>
+      </c>
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C61" s="9" t="n">
+        <v>43679.64097222222</v>
+      </c>
+      <c r="D61" s="10" t="inlineStr">
+        <is>
+          <t>丁磊</t>
+        </is>
+      </c>
+      <c r="E61" s="11" t="inlineStr">
+        <is>
+          <t>13770664995</t>
+        </is>
+      </c>
+      <c r="F61" s="12" t="n">
+        <v>43680.39027777778</v>
+      </c>
+      <c r="G61" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H61" s="14" t="n">
+        <v>43682.39027777778</v>
+      </c>
+      <c r="I61" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J61" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K61" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L61" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M61" s="19" t="inlineStr">
+        <is>
+          <t>苏A265BE</t>
+        </is>
+      </c>
+      <c r="N61" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O61" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P61" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q61" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="inlineStr">
+        <is>
+          <t>GX20190731151849646</t>
+        </is>
+      </c>
+      <c r="B62" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="n">
+        <v>43677.6375</v>
+      </c>
+      <c r="D62" s="10" t="inlineStr">
+        <is>
+          <t>刘李恒</t>
+        </is>
+      </c>
+      <c r="E62" s="11" t="inlineStr">
+        <is>
+          <t>13062500022</t>
+        </is>
+      </c>
+      <c r="F62" s="12" t="n">
+        <v>43677.729166666664</v>
+      </c>
+      <c r="G62" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H62" s="14" t="n">
+        <v>43679.729166666664</v>
+      </c>
+      <c r="I62" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J62" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K62" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L62" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M62" s="19" t="inlineStr">
+        <is>
+          <t>苏A666AP</t>
+        </is>
+      </c>
+      <c r="N62" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O62" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P62" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q62" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="inlineStr">
+        <is>
+          <t>GX20190730124113177</t>
+        </is>
+      </c>
+      <c r="B63" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C63" s="9" t="n">
+        <v>43676.52847222222</v>
+      </c>
+      <c r="D63" s="10" t="inlineStr">
+        <is>
+          <t>王浩</t>
+        </is>
+      </c>
+      <c r="E63" s="11" t="inlineStr">
+        <is>
+          <t>15861802435</t>
+        </is>
+      </c>
+      <c r="F63" s="12" t="n">
+        <v>43676.708333333336</v>
+      </c>
+      <c r="G63" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H63" s="14" t="n">
+        <v>43678.708333333336</v>
+      </c>
+      <c r="I63" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J63" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K63" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L63" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M63" s="19" t="inlineStr">
+        <is>
+          <t>苏A339DD</t>
+        </is>
+      </c>
+      <c r="N63" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O63" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P63" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q63" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="inlineStr">
+        <is>
+          <t>GX20190729100522931</t>
+        </is>
+      </c>
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C64" s="9" t="n">
+        <v>43675.42013888889</v>
+      </c>
+      <c r="D64" s="10" t="inlineStr">
+        <is>
+          <t>余景涵</t>
+        </is>
+      </c>
+      <c r="E64" s="11" t="inlineStr">
+        <is>
+          <t>17602545309</t>
+        </is>
+      </c>
+      <c r="F64" s="12" t="n">
+        <v>43675.427083333336</v>
+      </c>
+      <c r="G64" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H64" s="14" t="n">
+        <v>43677.427083333336</v>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J64" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K64" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L64" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M64" s="19" t="inlineStr">
+        <is>
+          <t>苏A219AR</t>
+        </is>
+      </c>
+      <c r="N64" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O64" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P64" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q64" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="inlineStr">
+        <is>
+          <t>GX20190728153451035</t>
+        </is>
+      </c>
+      <c r="B65" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C65" s="9" t="n">
+        <v>43674.64861111111</v>
+      </c>
+      <c r="D65" s="10" t="inlineStr">
+        <is>
+          <t>刘大群</t>
+        </is>
+      </c>
+      <c r="E65" s="11" t="inlineStr">
+        <is>
+          <t>13912910820</t>
+        </is>
+      </c>
+      <c r="F65" s="12" t="n">
+        <v>43674.729166666664</v>
+      </c>
+      <c r="G65" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H65" s="14" t="n">
+        <v>43676.729166666664</v>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J65" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K65" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L65" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M65" s="19" t="inlineStr">
+        <is>
+          <t>苏A155AA</t>
+        </is>
+      </c>
+      <c r="N65" s="20" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="O65" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P65" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q65" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="inlineStr">
+        <is>
+          <t>GX20190728095314442</t>
+        </is>
+      </c>
+      <c r="B66" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="n">
+        <v>43674.41180555556</v>
+      </c>
+      <c r="D66" s="10" t="inlineStr">
+        <is>
+          <t>夏萍</t>
+        </is>
+      </c>
+      <c r="E66" s="11" t="inlineStr">
+        <is>
+          <t>18100626119</t>
+        </is>
+      </c>
+      <c r="F66" s="12" t="n">
+        <v>43674.475</v>
+      </c>
+      <c r="G66" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H66" s="14" t="n">
+        <v>43676.475</v>
+      </c>
+      <c r="I66" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J66" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K66" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L66" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M66" s="19" t="inlineStr">
+        <is>
+          <t>苏A265BE</t>
+        </is>
+      </c>
+      <c r="N66" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O66" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P66" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q66" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727172717019</t>
+        </is>
+      </c>
+      <c r="B67" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C67" s="9" t="n">
+        <v>43673.72708333333</v>
+      </c>
+      <c r="D67" s="10" t="inlineStr">
+        <is>
+          <t>史从洋</t>
+        </is>
+      </c>
+      <c r="E67" s="11" t="inlineStr">
+        <is>
+          <t>15951625076</t>
+        </is>
+      </c>
+      <c r="F67" s="12" t="n">
+        <v>43673.72638888889</v>
+      </c>
+      <c r="G67" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H67" s="14" t="n">
+        <v>43675.72638888889</v>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J67" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K67" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L67" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M67" s="19" t="inlineStr">
+        <is>
+          <t>苏A666AP</t>
+        </is>
+      </c>
+      <c r="N67" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O67" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P67" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q67" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="inlineStr">
+        <is>
+          <t>GX20190726103613277</t>
+        </is>
+      </c>
+      <c r="B68" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C68" s="9" t="n">
+        <v>43672.441666666666</v>
+      </c>
+      <c r="D68" s="10" t="inlineStr">
+        <is>
+          <t>袁时冬</t>
+        </is>
+      </c>
+      <c r="E68" s="11" t="inlineStr">
+        <is>
+          <t>15895888527</t>
+        </is>
+      </c>
+      <c r="F68" s="12" t="n">
+        <v>43689.75</v>
+      </c>
+      <c r="G68" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H68" s="14" t="n">
+        <v>43692.75</v>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J68" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K68" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L68" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M68" s="19" t="inlineStr">
+        <is>
+          <t>苏A88Y9W</t>
+        </is>
+      </c>
+      <c r="N68" s="20" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="O68" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P68" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q68" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="inlineStr">
+        <is>
+          <t>GX20190720164155032</t>
+        </is>
+      </c>
+      <c r="B69" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C69" s="9" t="n">
+        <v>43666.69513888889</v>
+      </c>
+      <c r="D69" s="10" t="inlineStr">
+        <is>
+          <t>张磊</t>
+        </is>
+      </c>
+      <c r="E69" s="11" t="inlineStr">
+        <is>
+          <t>13655193117</t>
+        </is>
+      </c>
+      <c r="F69" s="12" t="n">
+        <v>43666.694444444445</v>
+      </c>
+      <c r="G69" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H69" s="14" t="n">
+        <v>43670.694444444445</v>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J69" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K69" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L69" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M69" s="19" t="inlineStr">
+        <is>
+          <t>苏AY7J67</t>
+        </is>
+      </c>
+      <c r="N69" s="20" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="O69" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P69" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q69" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="inlineStr">
+        <is>
+          <t>GX20190720101128160</t>
+        </is>
+      </c>
+      <c r="B70" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C70" s="9" t="n">
+        <v>43666.424305555556</v>
+      </c>
+      <c r="D70" s="10" t="inlineStr">
+        <is>
+          <t>杨辉</t>
+        </is>
+      </c>
+      <c r="E70" s="11" t="inlineStr">
+        <is>
+          <t>17372969927</t>
+        </is>
+      </c>
+      <c r="F70" s="12" t="n">
+        <v>43666.46597222222</v>
+      </c>
+      <c r="G70" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H70" s="14" t="n">
+        <v>43668.46597222222</v>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J70" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K70" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L70" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M70" s="19" t="inlineStr">
+        <is>
+          <t>苏A315CY</t>
+        </is>
+      </c>
+      <c r="N70" s="20" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="O70" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P70" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q70" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="inlineStr">
+        <is>
+          <t>GX20190720100950285</t>
+        </is>
+      </c>
+      <c r="B71" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="n">
+        <v>43666.42291666667</v>
+      </c>
+      <c r="D71" s="10" t="inlineStr">
+        <is>
+          <t>许升松</t>
+        </is>
+      </c>
+      <c r="E71" s="11" t="inlineStr">
+        <is>
+          <t>13951701359</t>
+        </is>
+      </c>
+      <c r="F71" s="12" t="n">
+        <v>43666.46597222222</v>
+      </c>
+      <c r="G71" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H71" s="14" t="n">
+        <v>43668.46597222222</v>
+      </c>
+      <c r="I71" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J71" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K71" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L71" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M71" s="19" t="inlineStr">
+        <is>
+          <t>苏A065CL</t>
+        </is>
+      </c>
+      <c r="N71" s="20" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="O71" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P71" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q71" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="inlineStr">
+        <is>
+          <t>GX20190719093744791</t>
+        </is>
+      </c>
+      <c r="B72" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C72" s="9" t="n">
+        <v>43665.40069444444</v>
+      </c>
+      <c r="D72" s="10" t="inlineStr">
+        <is>
+          <t>杨辉</t>
+        </is>
+      </c>
+      <c r="E72" s="11" t="inlineStr">
+        <is>
+          <t>17372969927</t>
+        </is>
+      </c>
+      <c r="F72" s="12" t="n">
+        <v>43665.73333333333</v>
+      </c>
+      <c r="G72" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H72" s="14" t="n">
+        <v>43667.73333333333</v>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J72" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="K72" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京协众东麒路店</t>
+        </is>
+      </c>
+      <c r="L72" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N72" s="20" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="O72" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P72" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q72" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="inlineStr">
+        <is>
+          <t>GX20190715174319611</t>
+        </is>
+      </c>
+      <c r="B73" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="n">
+        <v>43661.73819444444</v>
+      </c>
+      <c r="D73" s="10" t="inlineStr">
+        <is>
+          <t>许升松</t>
+        </is>
+      </c>
+      <c r="E73" s="11" t="inlineStr">
+        <is>
+          <t>13951701359</t>
+        </is>
+      </c>
+      <c r="F73" s="12" t="n">
+        <v>43661.7375</v>
+      </c>
+      <c r="G73" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H73" s="14" t="n">
+        <v>43663.7375</v>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J73" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京长益大厂店</t>
+        </is>
+      </c>
+      <c r="K73" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京长益大厂店</t>
+        </is>
+      </c>
+      <c r="L73" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M73" s="19" t="inlineStr">
+        <is>
+          <t>苏A356BV</t>
+        </is>
+      </c>
+      <c r="N73" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O73" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P73" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q73" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="inlineStr">
+        <is>
+          <t>GX20190714130933760</t>
+        </is>
+      </c>
+      <c r="B74" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C74" s="9" t="n">
+        <v>43660.54791666667</v>
+      </c>
+      <c r="D74" s="10" t="inlineStr">
+        <is>
+          <t>夏泽宇</t>
+        </is>
+      </c>
+      <c r="E74" s="11" t="inlineStr">
+        <is>
+          <t>18914691828</t>
+        </is>
+      </c>
+      <c r="F74" s="12" t="n">
+        <v>43661.75</v>
+      </c>
+      <c r="G74" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H74" s="14" t="n">
+        <v>43663.75</v>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J74" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K74" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L74" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M74" s="19" t="inlineStr">
+        <is>
+          <t>苏A88Y9W</t>
+        </is>
+      </c>
+      <c r="N74" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O74" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P74" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q74" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="inlineStr">
+        <is>
+          <t>GX20190713092008563</t>
+        </is>
+      </c>
+      <c r="B75" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="n">
+        <v>43659.38888888889</v>
+      </c>
+      <c r="D75" s="10" t="inlineStr">
+        <is>
+          <t>孙伟</t>
+        </is>
+      </c>
+      <c r="E75" s="11" t="inlineStr">
+        <is>
+          <t>13584030098</t>
+        </is>
+      </c>
+      <c r="F75" s="12" t="n">
+        <v>43659.4375</v>
+      </c>
+      <c r="G75" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H75" s="14" t="n">
+        <v>43661.4375</v>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J75" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K75" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L75" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M75" s="19" t="inlineStr">
+        <is>
+          <t>苏A618CF</t>
+        </is>
+      </c>
+      <c r="N75" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O75" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P75" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q75" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="inlineStr">
+        <is>
+          <t>GX20190711175128019</t>
+        </is>
+      </c>
+      <c r="B76" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C76" s="9" t="n">
+        <v>43657.74375</v>
+      </c>
+      <c r="D76" s="10" t="inlineStr">
+        <is>
+          <t>戎超</t>
+        </is>
+      </c>
+      <c r="E76" s="11" t="inlineStr">
+        <is>
+          <t>13404170317</t>
+        </is>
+      </c>
+      <c r="F76" s="12" t="n">
+        <v>43658.666666666664</v>
+      </c>
+      <c r="G76" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H76" s="14" t="n">
+        <v>43660.666666666664</v>
+      </c>
+      <c r="I76" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J76" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K76" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L76" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M76" s="19" t="inlineStr">
+        <is>
+          <t>苏A666AP</t>
+        </is>
+      </c>
+      <c r="N76" s="20" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="O76" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P76" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q76" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="inlineStr">
+        <is>
+          <t>GX20190711112419619</t>
+        </is>
+      </c>
+      <c r="B77" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="n">
+        <v>43657.475</v>
+      </c>
+      <c r="D77" s="10" t="inlineStr">
+        <is>
+          <t>严思雨</t>
+        </is>
+      </c>
+      <c r="E77" s="11" t="inlineStr">
+        <is>
+          <t>18751994386</t>
+        </is>
+      </c>
+      <c r="F77" s="12" t="n">
+        <v>43658.75</v>
+      </c>
+      <c r="G77" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H77" s="14" t="n">
+        <v>43660.75</v>
+      </c>
+      <c r="I77" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J77" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K77" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L77" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M77" s="19" t="inlineStr">
+        <is>
+          <t>苏A88Y9W</t>
+        </is>
+      </c>
+      <c r="N77" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O77" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P77" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q77" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="inlineStr">
+        <is>
+          <t>GX20190710175150307</t>
+        </is>
+      </c>
+      <c r="B78" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C78" s="9" t="n">
+        <v>43656.74375</v>
+      </c>
+      <c r="D78" s="10" t="inlineStr">
+        <is>
+          <t>李超</t>
+        </is>
+      </c>
+      <c r="E78" s="11" t="inlineStr">
+        <is>
+          <t>18936002267</t>
+        </is>
+      </c>
+      <c r="F78" s="12" t="n">
+        <v>43656.740277777775</v>
+      </c>
+      <c r="G78" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H78" s="14" t="n">
+        <v>43658.740277777775</v>
+      </c>
+      <c r="I78" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J78" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K78" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L78" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M78" s="19" t="inlineStr">
+        <is>
+          <t>苏A155AA</t>
+        </is>
+      </c>
+      <c r="N78" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O78" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P78" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q78" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="inlineStr">
+        <is>
           <t>GX20190709103431422</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>短租</t>
-        </is>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B79" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C79" s="9" t="n">
         <v>43655.44027777778</v>
       </c>
-      <c r="D20" s="10" t="inlineStr">
+      <c r="D79" s="10" t="inlineStr">
         <is>
           <t>葛一鸣</t>
         </is>
       </c>
-      <c r="E20" s="11" t="inlineStr">
+      <c r="E79" s="11" t="inlineStr">
         <is>
           <t>13813810724</t>
         </is>
       </c>
-      <c r="F20" s="12" t="n">
+      <c r="F79" s="12" t="n">
         <v>43655.708333333336</v>
       </c>
-      <c r="G20" s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H20" s="14" t="n">
+      <c r="G79" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H79" s="14" t="n">
         <v>43657.708333333336</v>
       </c>
-      <c r="I20" s="15" t="inlineStr">
+      <c r="I79" s="15" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="J20" s="16" t="inlineStr">
-        <is>
-          <t>广汽丰田南京大政仙尧路店</t>
-        </is>
-      </c>
-      <c r="K20" s="17" t="inlineStr">
-        <is>
-          <t>广汽丰田南京大政仙尧路店</t>
-        </is>
-      </c>
-      <c r="L20" s="18" t="inlineStr">
+      <c r="J79" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="K79" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田南京大政仙尧路店</t>
+        </is>
+      </c>
+      <c r="L79" s="18" t="inlineStr">
         <is>
           <t>第八代凯美瑞双擎</t>
         </is>
       </c>
-      <c r="M20" s="19" t="inlineStr">
+      <c r="M79" s="19" t="inlineStr">
         <is>
           <t>苏A666AP</t>
         </is>
       </c>
-      <c r="N20" s="20" t="n">
+      <c r="N79" s="20" t="n">
         <v>18.0</v>
       </c>
-      <c r="O20" s="21" t="inlineStr">
+      <c r="O79" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P20" s="22" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q20" s="23" t="inlineStr">
+      <c r="P79" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q79" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
